--- a/Projekt1/dane.xlsx
+++ b/Projekt1/dane.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.401</v>
+        <v>0.893</v>
       </c>
       <c r="C2" t="n">
-        <v>0.743</v>
+        <v>0.585</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.639</v>
+        <v>0.632</v>
       </c>
       <c r="C3" t="n">
-        <v>0.167</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.442</v>
+        <v>0.379</v>
       </c>
       <c r="C4" t="n">
-        <v>0.922</v>
+        <v>0.274</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.194</v>
+        <v>0.275</v>
       </c>
       <c r="C5" t="n">
-        <v>0.157</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.776</v>
+        <v>0.82</v>
       </c>
       <c r="C6" t="n">
-        <v>0.481</v>
+        <v>0.6820000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.662</v>
+        <v>0.705</v>
       </c>
       <c r="C7" t="n">
-        <v>0.914</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.526</v>
+        <v>0.398</v>
       </c>
       <c r="C8" t="n">
-        <v>0.382</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.367</v>
+        <v>0.552</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01</v>
+        <v>0.289</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.129</v>
+        <v>0.168</v>
       </c>
       <c r="C10" t="n">
-        <v>0.67</v>
+        <v>0.824</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,230 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.303</v>
+        <v>0.133</v>
       </c>
       <c r="C11" t="n">
-        <v>0.715</v>
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.251</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.912</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.218</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.197</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.853</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.706</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.211</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.362</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.396</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.645</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.971</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.979</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.239</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.637</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.223</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.669</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.702</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.667</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.249</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.459</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.904</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.387</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.771</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.396</v>
       </c>
     </row>
   </sheetData>
